--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_2_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_2_sine_10_.xlsx
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.90000000000045</v>
+        <v>25.00000000000047</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -595,11 +595,11 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>48.1132072152812</v>
+        <v>48.85792322520842</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[40.428001463142365, 55.798412967420035]</t>
+          <t>[41.1578874972855, 56.55795895313135]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -609,11 +609,11 @@
         <v>2.220446049250313e-16</v>
       </c>
       <c r="P2" t="n">
-        <v>1.50318447288881</v>
+        <v>1.62897396852804</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.3145002294299628, 1.6918687163476571]</t>
+          <t>[1.452868674633116, 1.8050792624229643]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>51.67289403052063</v>
+        <v>54.45982482164075</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[46.638371316038956, 56.707416745002305]</t>
+          <t>[49.43857300476369, 59.48107663851781]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>18.94294294294329</v>
+        <v>18.51851851851887</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.19519519519552</v>
+        <v>17.81781781781815</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.69069069069105</v>
+        <v>19.21921921921959</v>
       </c>
     </row>
     <row r="3">
@@ -667,53 +667,53 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.90000000000045</v>
+        <v>25.00000000000047</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>7.771561172376096e-16</v>
+        <v>2.752797989558076e-12</v>
       </c>
       <c r="I3" t="n">
-        <v>7.771561172376096e-16</v>
+        <v>2.752797989558076e-12</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>48.02348579329978</v>
+        <v>45.19529806657774</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[38.74320341323022, 57.303768173369335]</t>
+          <t>[33.50055776892603, 56.890038364229454]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.398881011027697e-13</v>
+        <v>7.130172008373847e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.398881011027697e-13</v>
+        <v>7.130172008373847e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>1.264184431174272</v>
+        <v>1.150973885098963</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.0503422885875775, 1.4780265737609657]</t>
+          <t>[0.8742369946926551, 1.4277107755052718]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>9.812817225451909e-11</v>
       </c>
       <c r="S3" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>9.812817225451909e-11</v>
       </c>
       <c r="T3" t="n">
-        <v>50.41082541946284</v>
+        <v>54.14353255488162</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[45.04671659050953, 55.774934248416145]</t>
+          <t>[47.71747826320696, 60.56958684655629]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>19.89009009009045</v>
+        <v>20.4204204204208</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.04264264264298</v>
+        <v>19.31931931931968</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.73753753753792</v>
+        <v>21.52152152152193</v>
       </c>
     </row>
     <row r="4">
@@ -753,53 +753,53 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.90000000000045</v>
+        <v>25.00000000000047</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I4" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>44.03595709971871</v>
+        <v>48.32771471740504</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[35.13061511853004, 52.94129908090738]</t>
+          <t>[40.789952389444004, 55.86547704536607]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>5.904166044956582e-13</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O4" t="n">
-        <v>5.904166044956582e-13</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="P4" t="n">
-        <v>1.13839493553504</v>
+        <v>1.050342288587578</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.9245527929483472, 1.3522370781217319]</t>
+          <t>[0.8868159442565782, 1.2138686329185786]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>5.595524044110789e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="S4" t="n">
-        <v>5.595524044110789e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="T4" t="n">
-        <v>51.90182023206395</v>
+        <v>52.67991592076028</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[47.08166371113243, 56.72197675299548]</t>
+          <t>[48.6303030722045, 56.72952876931606]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>20.38858858858896</v>
+        <v>20.82082082082121</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.5411411411415</v>
+        <v>20.17017017017055</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.23603603603642</v>
+        <v>21.47147147147187</v>
       </c>
     </row>
     <row r="5">
@@ -839,53 +839,53 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.90000000000045</v>
+        <v>25.00000000000047</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>5.551115123125783e-16</v>
       </c>
       <c r="I5" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>5.551115123125783e-16</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>52.51863571630886</v>
+        <v>43.72225516353888</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[43.43563068730288, 61.60164074531483]</t>
+          <t>[34.97418803100031, 52.470322296077455]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>4.225508831723346e-13</v>
       </c>
       <c r="O5" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>4.225508831723346e-13</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8239211964369622</v>
+        <v>0.8113422468730391</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.6603948521059619, 0.9874475407679624]</t>
+          <t>[0.5975001042863459, 1.0251843894597323]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.275157922644212e-13</v>
+        <v>1.150910478031619e-09</v>
       </c>
       <c r="S5" t="n">
-        <v>3.275157922644212e-13</v>
+        <v>1.150910478031619e-09</v>
       </c>
       <c r="T5" t="n">
-        <v>53.82248031824278</v>
+        <v>54.99131672118721</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.21297567786739, 58.43198495861817]</t>
+          <t>[50.244376856108836, 59.738256586265585]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>21.63483483483523</v>
+        <v>21.77177177177218</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.98678678678717</v>
+        <v>20.92092092092131</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.28288288288329</v>
+        <v>22.62262262262305</v>
       </c>
     </row>
     <row r="6">
@@ -925,53 +925,53 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.21000000000035</v>
+        <v>24.01000000000031</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="I6" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>54.6581325724574</v>
+        <v>47.51840989894028</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[44.863977022038455, 64.45228812287635]</t>
+          <t>[38.62651464031017, 56.410305157570384]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.176836406102666e-14</v>
+        <v>4.929390229335695e-14</v>
       </c>
       <c r="O6" t="n">
-        <v>1.176836406102666e-14</v>
+        <v>4.929390229335695e-14</v>
       </c>
       <c r="P6" t="n">
         <v>0.3585000625718076</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.16981581911296129, 0.5471843060306538]</t>
+          <t>[0.15723686954903737, 0.5597632555945777]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0003980332039408285</v>
+        <v>0.000819071048313802</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0003980332039408285</v>
+        <v>0.000819071048313802</v>
       </c>
       <c r="T6" t="n">
-        <v>56.14932095552739</v>
+        <v>51.45638648560215</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[50.77208125829536, 61.526560652759414]</t>
+          <t>[46.38242115799174, 56.53035181321256]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>22.82864864864898</v>
+        <v>22.64006006006036</v>
       </c>
       <c r="Y6" t="n">
-        <v>22.10162162162194</v>
+        <v>21.87097097097126</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.55567567567601</v>
+        <v>23.40914914914946</v>
       </c>
     </row>
     <row r="7">
@@ -1011,53 +1011,53 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.21000000000035</v>
+        <v>24.01000000000031</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I7" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>51.52361784716594</v>
+        <v>49.19310030800563</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[40.95066283065749, 62.096572863674396]</t>
+          <t>[41.05031370718243, 57.33588690882883]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>9.301448500309561e-13</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="O7" t="n">
-        <v>9.301448500309561e-13</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4213948103914236</v>
+        <v>0.3333421634439633</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.20755266780473036, 0.6352369529781168]</t>
+          <t>[0.15723686954904093, 0.5094474573388856]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.0002568796053252775</v>
+        <v>0.0004159194048691806</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0002568796053252775</v>
+        <v>0.0004159194048691806</v>
       </c>
       <c r="T7" t="n">
-        <v>53.40529837387727</v>
+        <v>50.33229824888821</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[47.712912585371264, 59.09768416238327]</t>
+          <t>[45.753201108015794, 54.911395389760635]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>22.58630630630663</v>
+        <v>22.73619619619649</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.76234234234265</v>
+        <v>22.06324324324353</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.41027027027061</v>
+        <v>23.40914914914945</v>
       </c>
     </row>
     <row r="8">
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.21000000000035</v>
+        <v>24.01000000000031</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1111,39 +1111,39 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>44.92377123545348</v>
+        <v>49.83831996008835</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[36.581566942784384, 53.265975528122574]</t>
+          <t>[40.24957312420541, 59.427066795971285]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.841371665203042e-14</v>
+        <v>1.214583988939921e-13</v>
       </c>
       <c r="O8" t="n">
-        <v>3.841371665203042e-14</v>
+        <v>1.214583988939921e-13</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3585000625718076</v>
+        <v>0.3962369112635775</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.16981581911296129, 0.5471843060306538]</t>
+          <t>[0.19497371824080734, 0.5975001042863477]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.0003980332039408285</v>
+        <v>0.000259846526299512</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0003980332039408285</v>
+        <v>0.000259846526299512</v>
       </c>
       <c r="T8" t="n">
-        <v>49.75461272966637</v>
+        <v>47.64468133995772</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[45.09604252632306, 54.41318293300968]</t>
+          <t>[42.46320060572112, 52.82616207419432]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>22.82864864864898</v>
+        <v>22.49585585585615</v>
       </c>
       <c r="Y8" t="n">
-        <v>22.10162162162194</v>
+        <v>21.72676676676705</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.55567567567601</v>
+        <v>23.26494494494525</v>
       </c>
     </row>
     <row r="9">
@@ -1183,53 +1183,53 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.21000000000035</v>
+        <v>24.01000000000031</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.33066907387547e-16</v>
+        <v>2.164934898019055e-14</v>
       </c>
       <c r="I9" t="n">
-        <v>3.33066907387547e-16</v>
+        <v>2.164934898019055e-14</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>50.1395369669839</v>
+        <v>47.8389806672135</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[40.89259364172492, 59.38648029224287]</t>
+          <t>[37.56963014763004, 58.10833118679695]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.064215547965432e-14</v>
+        <v>3.683275906496419e-12</v>
       </c>
       <c r="O9" t="n">
-        <v>3.064215547965432e-14</v>
+        <v>3.683275906496419e-12</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2327105669325773</v>
+        <v>0.3207632138800394</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.03144737390980712, 0.4339737599553475]</t>
+          <t>[0.081763172165501, 0.5597632555945777]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.02441947774467956</v>
+        <v>0.009656747921369391</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02441947774467956</v>
+        <v>0.009656747921369391</v>
       </c>
       <c r="T9" t="n">
-        <v>54.68471893219182</v>
+        <v>48.76932268558653</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[49.29512341827246, 60.07431444611118]</t>
+          <t>[42.96019075048685, 54.57845462068621]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>23.31333333333367</v>
+        <v>22.78426426426456</v>
       </c>
       <c r="Y9" t="n">
-        <v>22.53783783783816</v>
+        <v>21.87097097097126</v>
       </c>
       <c r="Z9" t="n">
-        <v>24.08882882882918</v>
+        <v>23.69755755755786</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_2_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_2_sine_10_.xlsx
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.00000000000047</v>
+        <v>25.12000000000049</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>2.335909243811329e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>2.335909243811329e-13</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>48.85792322520842</v>
+        <v>44.72264509907044</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[41.1578874972855, 56.55795895313135]</t>
+          <t>[35.54234441325465, 53.90294578488623]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>9.396927680427325e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>9.396927680427325e-13</v>
       </c>
       <c r="P2" t="n">
-        <v>1.62897396852804</v>
+        <v>1.515763422452733</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.452868674633116, 1.8050792624229643]</t>
+          <t>[1.2893423303021176, 1.7421845146033483]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>54.45982482164075</v>
+        <v>55.20775627068541</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.43857300476369, 59.48107663851781]</t>
+          <t>[49.240708439205015, 61.1748041021658]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>18.51851851851887</v>
+        <v>19.06002002002039</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.81781781781815</v>
+        <v>18.15479479479515</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.21921921921959</v>
+        <v>19.96524524524563</v>
       </c>
     </row>
     <row r="3">
@@ -667,53 +667,53 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.00000000000047</v>
+        <v>25.12000000000049</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.752797989558076e-12</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I3" t="n">
-        <v>2.752797989558076e-12</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>45.19529806657774</v>
+        <v>44.71539645695026</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[33.50055776892603, 56.890038364229454]</t>
+          <t>[37.04896119850977, 52.381831715390746]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>7.130172008373847e-10</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="O3" t="n">
-        <v>7.130172008373847e-10</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="P3" t="n">
-        <v>1.150973885098963</v>
+        <v>1.389973926813502</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.8742369946926551, 1.4277107755052718]</t>
+          <t>[1.2012896833546556, 1.5786581702723481]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>9.812817225451909e-11</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.812817225451909e-11</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>54.14353255488162</v>
+        <v>48.46935704546223</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[47.71747826320696, 60.56958684655629]</t>
+          <t>[43.694708703041506, 53.24400538788296]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>20.4204204204208</v>
+        <v>19.5629229229233</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.31931931931968</v>
+        <v>18.80856856856893</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.52152152152193</v>
+        <v>20.31727727727767</v>
       </c>
     </row>
     <row r="4">
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.00000000000047</v>
+        <v>25.12000000000049</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -767,39 +767,39 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>48.32771471740504</v>
+        <v>46.92198173263857</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[40.789952389444004, 55.86547704536607]</t>
+          <t>[37.83969288421869, 56.00427058105845]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.474376176702208e-13</v>
       </c>
       <c r="O4" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.474376176702208e-13</v>
       </c>
       <c r="P4" t="n">
-        <v>1.050342288587578</v>
+        <v>1.037763339023655</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.8868159442565782, 1.2138686329185786]</t>
+          <t>[0.8365001460008861, 1.2390265320464247]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.569855356819971e-13</v>
       </c>
       <c r="S4" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.569855356819971e-13</v>
       </c>
       <c r="T4" t="n">
-        <v>52.67991592076028</v>
+        <v>52.1729721086958</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[48.6303030722045, 56.72952876931606]</t>
+          <t>[47.33265274147048, 57.01329147592112]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>20.82082082082121</v>
+        <v>20.97105105105146</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.17017017017055</v>
+        <v>20.1664064064068</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.47147147147187</v>
+        <v>21.77569569569612</v>
       </c>
     </row>
     <row r="5">
@@ -839,53 +839,53 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.00000000000047</v>
+        <v>25.12000000000049</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>5.551115123125783e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I5" t="n">
-        <v>5.551115123125783e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>43.72225516353888</v>
+        <v>46.91128196446271</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[34.97418803100031, 52.470322296077455]</t>
+          <t>[37.817306561393316, 56.0052573675321]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4.225508831723346e-13</v>
+        <v>1.549871342376719e-13</v>
       </c>
       <c r="O5" t="n">
-        <v>4.225508831723346e-13</v>
+        <v>1.549871342376719e-13</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8113422468730391</v>
+        <v>0.6855527512338089</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.5975001042863459, 1.0251843894597323]</t>
+          <t>[0.4968685077749617, 0.874236994692656]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.150910478031619e-09</v>
+        <v>3.449353247475528e-09</v>
       </c>
       <c r="S5" t="n">
-        <v>1.150910478031619e-09</v>
+        <v>3.449353247475528e-09</v>
       </c>
       <c r="T5" t="n">
-        <v>54.99131672118721</v>
+        <v>50.78737676985708</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[50.244376856108836, 59.738256586265585]</t>
+          <t>[46.08427774777565, 55.490475791938515]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>21.77177177177218</v>
+        <v>22.37917917917961</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.92092092092131</v>
+        <v>21.62482482482524</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.62262262262305</v>
+        <v>23.13353353353398</v>
       </c>
     </row>
     <row r="6">
@@ -925,53 +925,53 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.01000000000031</v>
+        <v>24.24000000000035</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>3.919087276926803e-14</v>
       </c>
       <c r="I6" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>3.919087276926803e-14</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>47.51840989894028</v>
+        <v>41.33020579808183</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[38.62651464031017, 56.410305157570384]</t>
+          <t>[32.10098698531357, 50.5594246108501]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.929390229335695e-14</v>
+        <v>1.18911547275502e-11</v>
       </c>
       <c r="O6" t="n">
-        <v>4.929390229335695e-14</v>
+        <v>1.18911547275502e-11</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3585000625718076</v>
+        <v>0.4088158608275014</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.15723686954903737, 0.5597632555945777]</t>
+          <t>[0.16981581911296306, 0.6478159025420398]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.000819071048313802</v>
+        <v>0.001246551981941124</v>
       </c>
       <c r="S6" t="n">
-        <v>0.000819071048313802</v>
+        <v>0.001246551981941124</v>
       </c>
       <c r="T6" t="n">
-        <v>51.45638648560215</v>
+        <v>50.0598482075304</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[46.38242115799174, 56.53035181321256]</t>
+          <t>[44.96937078405321, 55.15032563100759]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>22.64006006006036</v>
+        <v>22.66282282282315</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.87097097097126</v>
+        <v>21.74078078078109</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.40914914914946</v>
+        <v>23.5848648648652</v>
       </c>
     </row>
     <row r="7">
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.01000000000031</v>
+        <v>24.24000000000035</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1025,39 +1025,39 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>49.19310030800563</v>
+        <v>48.21113733282269</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[41.05031370718243, 57.33588690882883]</t>
+          <t>[40.45813773708834, 55.96413692855703]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O7" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3333421634439633</v>
+        <v>0.2578684660604242</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.15723686954904093, 0.5094474573388856]</t>
+          <t>[0.08176317216550189, 0.4339737599553466]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.0004159194048691806</v>
+        <v>0.005038782347036586</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0004159194048691806</v>
+        <v>0.005038782347036586</v>
       </c>
       <c r="T7" t="n">
-        <v>50.33229824888821</v>
+        <v>53.18415921049946</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[45.753201108015794, 54.911395389760635]</t>
+          <t>[48.67564642706758, 57.692671993931334]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>22.73619619619649</v>
+        <v>23.2451651651655</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.06324324324353</v>
+        <v>22.56576576576609</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.40914914914945</v>
+        <v>23.9245645645649</v>
       </c>
     </row>
     <row r="8">
@@ -1081,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1097,53 +1097,53 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.01000000000031</v>
+        <v>24.24000000000035</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>2.885469641000782e-13</v>
       </c>
       <c r="I8" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>2.885469641000782e-13</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>49.83831996008835</v>
+        <v>46.33069388836525</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[40.24957312420541, 59.427066795971285]</t>
+          <t>[36.07579869083327, 56.58558908589724]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.214583988939921e-13</v>
+        <v>9.172662629453043e-12</v>
       </c>
       <c r="O8" t="n">
-        <v>1.214583988939921e-13</v>
+        <v>9.172662629453043e-12</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3962369112635775</v>
+        <v>0.2201316173686543</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.19497371824080734, 0.5975001042863477]</t>
+          <t>[-0.018868424345884982, 0.45913165908319353]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.000259846526299512</v>
+        <v>0.07014081416816875</v>
       </c>
       <c r="S8" t="n">
-        <v>0.000259846526299512</v>
+        <v>0.07014081416816875</v>
       </c>
       <c r="T8" t="n">
-        <v>47.64468133995772</v>
+        <v>51.71015132460654</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[42.46320060572112, 52.82616207419432]</t>
+          <t>[45.65089765259205, 57.769404996621034]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>22.49585585585615</v>
+        <v>23.39075075075109</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.72676676676705</v>
+        <v>22.46870870870903</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.26494494494525</v>
+        <v>24.31279279279315</v>
       </c>
     </row>
     <row r="9">
@@ -1183,53 +1183,53 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.01000000000031</v>
+        <v>24.24000000000035</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.164934898019055e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I9" t="n">
-        <v>2.164934898019055e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>47.8389806672135</v>
+        <v>52.04279937755853</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[37.56963014763004, 58.10833118679695]</t>
+          <t>[44.57346585181619, 59.51213290330087]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.683275906496419e-12</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>3.683275906496419e-12</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3207632138800394</v>
+        <v>0.2201316173686543</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.081763172165501, 0.5597632555945777]</t>
+          <t>[0.06918422260157708, 0.37107901213573147]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.009656747921369391</v>
+        <v>0.005204647313992172</v>
       </c>
       <c r="S9" t="n">
-        <v>0.009656747921369391</v>
+        <v>0.005204647313992172</v>
       </c>
       <c r="T9" t="n">
-        <v>48.76932268558653</v>
+        <v>53.09971596592887</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[42.96019075048685, 54.57845462068621]</t>
+          <t>[48.50418287244723, 57.6952490594105]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>22.78426426426456</v>
+        <v>23.39075075075109</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.87097097097126</v>
+        <v>22.80840840840874</v>
       </c>
       <c r="Z9" t="n">
-        <v>23.69755755755786</v>
+        <v>23.97309309309344</v>
       </c>
     </row>
   </sheetData>
